--- a/data/financial_statements/sofp/CTVA.xlsx
+++ b/data/financial_statements/sofp/CTVA.xlsx
@@ -14,9 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -146,9 +203,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -201,12 +255,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -511,69 +562,69 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43100</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2318000000</v>
@@ -628,8 +679,8 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B3">
         <v>6273000000</v>
@@ -684,8 +735,8 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B4">
         <v>5415000000</v>
@@ -740,8 +791,8 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1039000000</v>
@@ -796,8 +847,8 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B6">
         <v>15045000000</v>
@@ -852,8 +903,8 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B7">
         <v>4185000000</v>
@@ -908,8 +959,8 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
         <v>91000000</v>
@@ -964,8 +1015,8 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B9">
         <v>19252000000</v>
@@ -1026,8 +1077,8 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B10">
         <v>407000000</v>
@@ -1073,8 +1124,8 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B11">
         <v>1671000000</v>
@@ -1129,8 +1180,8 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B12">
         <v>25606000000</v>
@@ -1185,8 +1236,8 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B13">
         <v>40651000000</v>
@@ -1247,8 +1298,8 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B14">
         <v>4140000000</v>
@@ -1303,8 +1354,8 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2115000000</v>
@@ -1359,8 +1410,8 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B16">
         <v>1576000000</v>
@@ -1415,8 +1466,8 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1435,8 +1486,8 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B18">
         <v>227000000</v>
@@ -1497,8 +1548,8 @@
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B19">
         <v>860000000</v>
@@ -1535,8 +1586,8 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B20">
         <v>2975000000</v>
@@ -1585,8 +1636,8 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B21">
         <v>8918000000</v>
@@ -1641,8 +1692,8 @@
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B22">
         <v>1277000000</v>
@@ -1697,8 +1748,8 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B23">
         <v>108000000</v>
@@ -1753,8 +1804,8 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B24">
         <v>2628000000</v>
@@ -1800,8 +1851,8 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B25">
         <v>1123000000</v>
@@ -1847,8 +1898,8 @@
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1867,8 +1918,8 @@
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B27">
         <v>1621000000</v>
@@ -1923,8 +1974,8 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B28">
         <v>6649000000</v>
@@ -1979,8 +2030,8 @@
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B29">
         <v>15567000000</v>
@@ -2041,8 +2092,8 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B30">
         <v>27815000000</v>
@@ -2103,8 +2154,8 @@
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2123,8 +2174,8 @@
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B32">
         <v>7000000</v>
@@ -2185,8 +2236,8 @@
       </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B33">
         <v>614000000</v>
@@ -2226,8 +2277,8 @@
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2246,8 +2297,8 @@
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2266,8 +2317,8 @@
       </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B36">
         <v>25084000000</v>
@@ -2322,8 +2373,8 @@
       </c>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B37">
         <v>25084000000</v>
@@ -2384,8 +2435,8 @@
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B38">
         <v>40651000000</v>
@@ -2446,8 +2497,8 @@
       </c>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B39">
         <v>716225000</v>
@@ -2493,8 +2544,8 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B40">
         <v>5832000000</v>
@@ -2549,8 +2600,8 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B41">
         <v>535000000</v>
@@ -2605,8 +2656,8 @@
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B42">
         <v>2853000000</v>
